--- a/需求文档/初版修改/需求整理反馈.xlsx
+++ b/需求文档/初版修改/需求整理反馈.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24180" windowHeight="13065"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="局内" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="140">
   <si>
     <t>阶段</t>
   </si>
@@ -33,6 +33,12 @@
     <t>显示在右上</t>
   </si>
   <si>
+    <t>不用展示波次</t>
+  </si>
+  <si>
+    <t>拓展一个AI表</t>
+  </si>
+  <si>
     <t>显示内容</t>
   </si>
   <si>
@@ -54,10 +60,13 @@
     <t>卡的列表显示在正上方</t>
   </si>
   <si>
+    <t>固定6个位置</t>
+  </si>
+  <si>
     <t>被选的卡牌在正下方</t>
   </si>
   <si>
-    <t>上阵和取消卡牌选择直接点？</t>
+    <t>上阵和取消卡牌选择直接点</t>
   </si>
   <si>
     <t>开始战斗按钮</t>
@@ -69,6 +78,9 @@
     <t>此处有UI动画</t>
   </si>
   <si>
+    <t>不选卡没有按钮</t>
+  </si>
+  <si>
     <t>场景图</t>
   </si>
   <si>
@@ -78,7 +90,7 @@
     <t>包含地形么，还是只是一个关卡风格图</t>
   </si>
   <si>
-    <t>关卡风格</t>
+    <t>完整地形</t>
   </si>
   <si>
     <t>战斗阶段</t>
@@ -93,6 +105,12 @@
     <t>货币+人口值</t>
   </si>
   <si>
+    <t>人口暂定</t>
+  </si>
+  <si>
+    <t>UI不挡操作</t>
+  </si>
+  <si>
     <t>下方UI卡牌列表</t>
   </si>
   <si>
@@ -102,7 +120,7 @@
     <t>能建造的高亮？</t>
   </si>
   <si>
-    <t>暂定不符合建造规格时灰化</t>
+    <t>只管亮按</t>
   </si>
   <si>
     <t>资源或者人口不足用红字并置灰？</t>
@@ -114,6 +132,9 @@
     <t>卡牌的技能需不需要找个地方显示？</t>
   </si>
   <si>
+    <t>所有塔UI都统一</t>
+  </si>
+  <si>
     <t>逻辑</t>
   </si>
   <si>
@@ -204,7 +225,7 @@
     <t>有形态变化显示形态变化选择</t>
   </si>
   <si>
-    <t>这时候要显示当前塔属性和删除么</t>
+    <t>这时候要显示当前塔属性和删除</t>
   </si>
   <si>
     <t>没有其他形态，只显示属性技能和删除。删除是否返还部分战斗值待讨论，人口一定返还。</t>
@@ -237,6 +258,9 @@
     <t>每秒/次数。</t>
   </si>
   <si>
+    <t>0.3/s</t>
+  </si>
+  <si>
     <t>距离</t>
   </si>
   <si>
@@ -246,6 +270,9 @@
     <t>9宫格，整格计算。1就是周围8格子一圈。</t>
   </si>
   <si>
+    <t>歇着算一格</t>
+  </si>
+  <si>
     <t>种族</t>
   </si>
   <si>
@@ -270,12 +297,18 @@
     <t>根据单位变更次数，或固定值，待讨论。</t>
   </si>
   <si>
+    <t>每个单位消耗固定</t>
+  </si>
+  <si>
     <t>形态是同级的，不会有升降级的情况？</t>
   </si>
   <si>
     <t>不存在升级，单位替换原则，各走各的属性和技能。</t>
   </si>
   <si>
+    <t>都是平等</t>
+  </si>
+  <si>
     <t>怪物</t>
   </si>
   <si>
@@ -298,6 +331,12 @@
   </si>
   <si>
     <t>这个和ai一起，单独谈论</t>
+  </si>
+  <si>
+    <t>按时间走</t>
+  </si>
+  <si>
+    <t>全配置</t>
   </si>
   <si>
     <t>玩家的血量</t>
@@ -405,9 +444,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -426,7 +465,7 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF00B0F0"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -447,7 +486,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -461,6 +514,90 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -470,51 +607,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -530,61 +623,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -599,187 +638,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -790,6 +829,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -804,15 +858,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -832,17 +877,29 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -864,15 +921,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -881,166 +929,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1053,17 +1092,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1384,13 +1429,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G55"/>
+  <dimension ref="A1:I55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="G60" sqref="G60:G61"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="F60" sqref="F60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="2" width="10.8333333333333" style="2"/>
     <col min="3" max="3" width="14.1666666666667" style="2" customWidth="1"/>
@@ -1398,10 +1443,11 @@
     <col min="5" max="5" width="56.6666666666667" style="2" customWidth="1"/>
     <col min="6" max="6" width="38.6666666666667" style="2" customWidth="1"/>
     <col min="7" max="7" width="32.5" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="10.8333333333333" style="2"/>
+    <col min="8" max="8" width="16" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="10.8333333333333" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1417,459 +1463,499 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2" spans="5:6">
       <c r="E2" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="4:5">
       <c r="D3" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="5:6">
       <c r="E4" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="6:6">
       <c r="F5" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="3:4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="3:8">
       <c r="C6" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="4:4">
       <c r="D8" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="3:5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="3:7">
       <c r="C9" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="3:7">
       <c r="C10" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="4:5">
       <c r="D11" s="3"/>
-      <c r="E11" s="4"/>
-    </row>
-    <row r="12" spans="2:5">
+      <c r="E11" s="5"/>
+    </row>
+    <row r="12" spans="2:8">
       <c r="B12" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="4:7">
       <c r="D13" s="2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>28</v>
+        <v>32</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="6:7">
-      <c r="F14" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G14" s="5"/>
+      <c r="F14" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14" s="7"/>
     </row>
     <row r="15" spans="5:5">
       <c r="E15" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="5:5">
-      <c r="E16" s="4" t="s">
-        <v>31</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="5:7">
+      <c r="E16" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="3:5">
       <c r="C17" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="4:5">
       <c r="D18" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>36</v>
+        <v>42</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="4:7">
       <c r="D19" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E19" s="4"/>
-      <c r="F19" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>39</v>
+        <v>44</v>
+      </c>
+      <c r="E19" s="5"/>
+      <c r="F19" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="4:7">
       <c r="D20" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G20" s="5"/>
+        <v>47</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="G20" s="9"/>
     </row>
     <row r="21" spans="4:7">
       <c r="D21" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G21" s="5"/>
+        <v>49</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="G21" s="9"/>
     </row>
     <row r="22" spans="4:5">
       <c r="D22" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="5:6">
-      <c r="E23" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>46</v>
+      <c r="E23" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="4:7">
       <c r="D24" s="2" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>50</v>
+        <v>55</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="6:7">
-      <c r="F25" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="G25" s="5"/>
+      <c r="F25" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G25" s="9"/>
     </row>
     <row r="26" spans="5:5">
       <c r="E26" s="2" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27" spans="5:5">
       <c r="E27" s="2" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="5:5">
       <c r="E28" s="2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="5:5">
       <c r="E29" s="2" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="5:5">
       <c r="E30" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="31" ht="47.25" spans="4:7">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" ht="42.75" spans="4:7">
       <c r="D31" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G31" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="32" ht="47.25" spans="4:7">
+        <v>64</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G31" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" ht="42.75" spans="4:7">
       <c r="D32" s="2" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="G32" s="5" t="s">
-        <v>63</v>
+        <v>68</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="G32" s="9" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="33" spans="5:5">
       <c r="E33" s="3" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
     </row>
     <row r="34" spans="4:5">
       <c r="D34" s="2" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
     </row>
     <row r="35" spans="5:7">
       <c r="E35" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>68</v>
+        <v>74</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>75</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="36" spans="5:7">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="36" spans="5:8">
       <c r="E36" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="G36" s="5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="37" ht="31.5" spans="5:7">
+        <v>77</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G36" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="37" ht="28.5" spans="5:8">
       <c r="E37" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="G37" s="5" t="s">
-        <v>75</v>
+        <v>81</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="G37" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="38" spans="5:5">
       <c r="E38" s="2" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
     </row>
     <row r="39" spans="5:5">
       <c r="E39" s="2" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
     </row>
     <row r="40" spans="5:5">
       <c r="E40" s="2" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
     </row>
     <row r="41" spans="5:5">
       <c r="E41" s="2" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
     </row>
     <row r="42" spans="5:5">
       <c r="E42" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="43" ht="31.5" spans="4:7">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="43" ht="28.5" spans="4:8">
       <c r="D43" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="G43" s="5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="44" ht="31.5" spans="5:7">
-      <c r="E44" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="G44" s="5" t="s">
-        <v>85</v>
+        <v>90</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="G43" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="44" ht="28.5" spans="5:8">
+      <c r="E44" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G44" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="45" spans="4:5">
       <c r="D45" s="2" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
     </row>
     <row r="46" spans="5:5">
       <c r="E46" s="2" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
     </row>
     <row r="47" spans="5:5">
       <c r="E47" s="2" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
     </row>
     <row r="48" spans="5:7">
-      <c r="E48" s="4" t="s">
-        <v>89</v>
+      <c r="E48" s="5" t="s">
+        <v>100</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="49" spans="4:7">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="49" spans="4:9">
       <c r="D49" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E49" s="4" t="s">
-        <v>92</v>
+        <v>102</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>103</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>93</v>
+        <v>104</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="50" spans="4:7">
-      <c r="D50" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="E50" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="G50" s="5" t="s">
-        <v>96</v>
+      <c r="D50" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="G50" s="9" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="51" spans="4:7">
-      <c r="D51" s="4"/>
-      <c r="E51" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="F51" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="G51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="F51" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="G51" s="9"/>
     </row>
     <row r="52" spans="4:7">
-      <c r="D52" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="E52" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="G52" s="5" t="s">
-        <v>101</v>
+      <c r="D52" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="G52" s="9" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="53" spans="4:7">
-      <c r="D53" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="E53" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="G53" s="5"/>
-    </row>
-    <row r="54" ht="31.5" spans="4:7">
-      <c r="D54" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="E54" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="G54" s="5" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="55" ht="31.5" spans="4:7">
-      <c r="D55" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="E55" s="6"/>
-      <c r="G55" s="5" t="s">
-        <v>108</v>
+      <c r="D53" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="G53" s="9"/>
+    </row>
+    <row r="54" ht="28.5" spans="4:7">
+      <c r="D54" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="G54" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="55" ht="28.5" spans="4:7">
+      <c r="D55" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="E55" s="5"/>
+      <c r="G55" s="9" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="23">
+  <mergeCells count="25">
     <mergeCell ref="B1:B10"/>
+    <mergeCell ref="B12:B55"/>
     <mergeCell ref="C1:C5"/>
     <mergeCell ref="C6:C8"/>
     <mergeCell ref="C12:C16"/>
@@ -1892,6 +1978,7 @@
     <mergeCell ref="G24:G25"/>
     <mergeCell ref="G50:G51"/>
     <mergeCell ref="G52:G53"/>
+    <mergeCell ref="H12:H16"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -1907,21 +1994,21 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -1939,7 +2026,7 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6"/>
   <cols>
     <col min="3" max="3" width="14.1666666666667" customWidth="1"/>
     <col min="9" max="9" width="12" customWidth="1"/>
@@ -1948,37 +2035,37 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="B1" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="C1" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="D1" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="E1" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="F1" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="G1" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="H1" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="I1" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="J1" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" spans="11:11">
@@ -1986,38 +2073,38 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="B3" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="D3" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="B5" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="C5" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="D5" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
